--- a/data/san_antonio_bajo.xlsx
+++ b/data/san_antonio_bajo.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,25 +457,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -497,18 +502,21 @@
         <v>28</v>
       </c>
       <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>4</v>
       </c>
-      <c r="G2" t="n">
-        <v>11</v>
-      </c>
       <c r="H2" t="n">
         <v>11</v>
       </c>
       <c r="I2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" t="n">
         <v>11</v>
       </c>
     </row>
@@ -528,10 +536,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
         <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -540,6 +548,9 @@
         <v>10</v>
       </c>
       <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -559,18 +570,21 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
-        <v>11</v>
-      </c>
       <c r="G4" t="n">
         <v>11</v>
       </c>
       <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -590,11 +604,11 @@
         <v>14</v>
       </c>
       <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
         <v>5</v>
       </c>
-      <c r="F5" t="n">
-        <v>11</v>
-      </c>
       <c r="G5" t="n">
         <v>11</v>
       </c>
@@ -602,6 +616,9 @@
         <v>11</v>
       </c>
       <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -621,18 +638,21 @@
         <v>13</v>
       </c>
       <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
       <c r="G6" t="n">
         <v>11</v>
       </c>
       <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
         <v>10</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>12</v>
       </c>
     </row>
@@ -652,18 +672,21 @@
         <v>16</v>
       </c>
       <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>21</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>12</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>11</v>
       </c>
     </row>
@@ -692,9 +715,12 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>24</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>20</v>
       </c>
     </row>
@@ -714,20 +740,23 @@
         <v>18</v>
       </c>
       <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
         <v>5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>10</v>
       </c>
-      <c r="G9" t="n">
-        <v>11</v>
-      </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
       </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,18 +774,21 @@
         <v>13</v>
       </c>
       <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
         <v>6</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>9</v>
       </c>
-      <c r="G10" t="n">
-        <v>11</v>
-      </c>
       <c r="H10" t="n">
         <v>11</v>
       </c>
       <c r="I10" t="n">
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -776,11 +808,11 @@
         <v>16</v>
       </c>
       <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
         <v>5</v>
       </c>
-      <c r="F11" t="n">
-        <v>11</v>
-      </c>
       <c r="G11" t="n">
         <v>11</v>
       </c>
@@ -788,6 +820,9 @@
         <v>11</v>
       </c>
       <c r="I11" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" t="n">
         <v>11</v>
       </c>
     </row>
@@ -807,18 +842,21 @@
         <v>18</v>
       </c>
       <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
         <v>5</v>
       </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
       <c r="G12" t="n">
         <v>11</v>
       </c>
       <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
         <v>10</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>11</v>
       </c>
     </row>
@@ -838,11 +876,11 @@
         <v>16</v>
       </c>
       <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
         <v>5</v>
       </c>
-      <c r="F13" t="n">
-        <v>11</v>
-      </c>
       <c r="G13" t="n">
         <v>11</v>
       </c>
@@ -850,6 +888,9 @@
         <v>11</v>
       </c>
       <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
         <v>11</v>
       </c>
     </row>
@@ -869,18 +910,21 @@
         <v>14</v>
       </c>
       <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>10</v>
       </c>
-      <c r="G14" t="n">
-        <v>11</v>
-      </c>
       <c r="H14" t="n">
         <v>11</v>
       </c>
       <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
         <v>10</v>
       </c>
     </row>
@@ -900,11 +944,11 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
+        <v>14</v>
+      </c>
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-      <c r="F15" t="n">
-        <v>11</v>
-      </c>
       <c r="G15" t="n">
         <v>11</v>
       </c>
@@ -912,6 +956,9 @@
         <v>11</v>
       </c>
       <c r="I15" t="n">
+        <v>11</v>
+      </c>
+      <c r="J15" t="n">
         <v>12</v>
       </c>
     </row>
@@ -926,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,25 +1004,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>04dec2025</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>26nov2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>27nov2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>28nov2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>29nov2025</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30nov2025</t>
         </is>
@@ -1000,25 +1052,30 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1047,25 +1104,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1094,14 +1156,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>11</t>
@@ -1109,10 +1171,15 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1141,14 +1208,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>11</t>
@@ -1160,6 +1227,11 @@
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1188,14 +1260,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>11</t>
@@ -1203,10 +1275,15 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1235,21 +1312,26 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1271,12 +1353,13 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1305,25 +1388,30 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1352,25 +1440,30 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1399,14 +1492,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>11</t>
@@ -1418,6 +1511,11 @@
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1446,14 +1544,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>11</t>
@@ -1461,10 +1559,15 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1493,14 +1596,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>11</t>
@@ -1512,6 +1615,11 @@
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1538,15 +1646,15 @@
           <t>14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1555,6 +1663,11 @@
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -1583,14 +1696,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>11</t>
@@ -1602,6 +1715,11 @@
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>12</t>
         </is>
